--- a/weibom/weibom/wuyitiaoxiu1.xlsx
+++ b/weibom/weibom/wuyitiaoxiu1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,50 +470,50 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7754427395</v>
+        <v>3764674343</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>听说名字越长就越容易中双签</t>
+          <t>北京大土豆</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>191.9万</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-04-12 21:20:47</t>
+          <t>2024-04-13 17:23:24</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>#五一调休# 清明和五一调休真的很愚蠢前后两星期都回不了家，还要上六天班，周末都没法过</t>
+          <t>我不太理解，每次放长假，关于反对调休的声音都很高，经常上热搜，怎么就一直不解决这个问题呢？4月被清明节和五一的调休弄的快成单休了。</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7331622139</v>
+        <v>6482644851</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>小怡说车</t>
+          <t>知行合一wwj</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,36 +523,36 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>40.8万</t>
+          <t>634</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-04-12 10:50:14</t>
+          <t>2024-04-13 17:19:37</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>#五一其实只放1天#实话实说 你支持调休吗？</t>
+          <t>#五一调休放5天#说是放五天假。其实是调休。</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5147499122</v>
+        <v>5951906141</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>海里没有yu</t>
+          <t>娅雅哒</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,36 +562,36 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>144</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-04-12 21:13:53</t>
+          <t>2024-04-13 17:09:40</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>五一调休真的垃圾。没想到时隔n年下回微博是为了吐槽这🤮希望热度不减 #五一调休##五一假期前后都要调休上班#</t>
+          <t>五一搞调休的人就是🐶🐶🐶</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5705529138</v>
+        <v>5831419578</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Good_94</t>
+          <t>此博主不营业</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1753</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024-04-12 21:13:51</t>
+          <t>2024-04-13 17:08:23</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -620,56 +620,56 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>#五一调休#本来周末是不用值班的，但是节假日要值班，这账，怎么算都不划算</t>
+          <t>#五一调休放5天#可以可以！去哪里玩？</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7152678733</v>
+        <v>6685382030</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>神奇知识点</t>
+          <t>想名有水</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>f</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>524.1万</t>
+          <t>1.4万</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024-04-11 16:29:41</t>
+          <t>2024-04-13 17:06:40</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>25594</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>发明调休的专家，您可以试试今天，明天和后天 三天都不要进餐，大后天吃9顿饭。既节省了时间，又吃的饱饱的。#五一调休#</t>
+          <t>#五一调休放5天#讨厌调休</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6434944861</v>
+        <v>7715835292</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>筱韵6434944861</t>
+          <t>MYZZbb</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,16 +679,16 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-04-12 21:09:27</t>
+          <t>2024-04-13 17:05:44</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -698,56 +698,56 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>#五一调休放5天#这个假放了等于没放啊</t>
+          <t>#五一调休##五一调休补两天班##如何看待五一调休# 我请问呢.谁能体谅一下住宿生的感受，周五下午回家周六下午回学校，然后周六下午回家周天下午回学校，两周连上6天，这么折腾人你还不如别放，我放两周周末也都有4天，这个假期你是在安慰谁？本来就包含了周末还腆着脸调休，无语😅</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1796445350</v>
+        <v>5334098734</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>锋潮科技</t>
+          <t>泻药大漏勺</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>f</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>296万</t>
+          <t>71</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024-04-12 08:14:19</t>
+          <t>2024-04-13 17:05:31</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>是这样算的没错吗 ？五一实际是放1天 ？ #五一调休放5天# #五一其实只放1天#</t>
+          <t>五一凭什么调休两天</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7527803893</v>
+        <v>3509125700</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>灯芯遇上灯芯糕</t>
+          <t>GameRainy88</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -757,65 +757,3212 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>417</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024-04-12 21:02:10</t>
+          <t>2024-04-13 17:04:29</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>#五一调休放5天#好不容易熬过这六天，麻木了</t>
+          <t>天哪 这周真的好累 现在才稍微缓过来 未来几周周末又要特种兵一样到处蹿希望五一的调休能让我正常放假去环球 好不容易是个大家都有空人又少的时间 球球领导别发疯</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1685715705</v>
+        <v>2246158212</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>长江云新闻</t>
+          <t>白槎之上睡一觉</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.6万</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2024-04-13 16:55:43</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>#五一其实只放1天# 这调休真的有必要吗？整的乱七八糟的，不想放就别放了正常上下班算了。看着就小气吧啦的</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5037464165</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>纳尔耷耷</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>556.8万</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2024-04-12 21:00:20</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>#五一出游买票订酒店省钱攻略来了# 调休后的六连班今天就结束啦！距离“五一”假期还有近三周的时间，不少游客已经开始提前计划出游。数据显示，截至4月9日，“五一”假期相关旅游搜索热度周环比上涨超过7倍，机票、酒店、景区预订量显著增加。“五一”出游，什么时候预订机票、酒店最便宜？去哪儿玩不贵？ 抠出千百块，“五一”这样出游买票订酒店最省钱！</t>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2024-04-13 16:54:21</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>我才发现五一调休，调的生日那天变成工作日了</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1722479555</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>欢笑的白鸦</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.2万</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2024-04-13 16:54:04</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>现在一些假装自己是过来人的小孩可能不知道，以前的五一7天假也是调休调出来的，和国庆、春节一样都是3天假期+4天的调休，不调休直接就给的7天假期只存在于咱国人民的快速眼动睡眠阶段以及别的国家。</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3103606835</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>你男票身后有阿飘啊--</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2024-04-13 14:09:10</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>连上八天班 真是多余给我调这休 #五一调休#</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7899020017</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>书聂姚</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2024-04-13 16:37:23</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>#五一调休放5天#咪的你放假可不可以不要周末算进去啊周末是本来就要放的你清明节加上周末就放了一天假而且还要我提前一天去上学这次更nb五一假期</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1760917667</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>霍霍霍伟伟</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>147.3万</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2024-04-12 10:27:00</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>405</v>
+      </c>
+      <c r="G15" t="n">
+        <v>43</v>
+      </c>
+      <c r="H15" t="n">
+        <v>63</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>#五一调休放5天# 有人说新四大发明是：调休、公摊、离婚冷静期、精选评论区。</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5430282517</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>大同消防</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.2万</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2024-04-12 09:29:37</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>102</v>
+      </c>
+      <c r="G16" t="n">
+        <v>47</v>
+      </c>
+      <c r="H16" t="n">
+        <v>42</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>【外出旅游安全注意事项要知道】外出旅游，大家在进入商场、宾馆、酒店等公众聚集场所时，要留意安全出口的位置，一旦发生火情，要及时从安全出口撤离。 #五一调休放5天# #广西三月三到底有多好玩#</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5098834075</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Niny-i</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2024-04-13 13:53:35</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>五一调休完就放一天 真会玩。</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3296944765</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Floveet919</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2024-04-13 16:19:43</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>五一调休连上九天班———我死了 五一去北海———我又活了</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7291437038</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>虾嘎嘎嘎</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2024-04-13 13:45:01</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>我到底还要上几个六天……别调了#五一调休#</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2458105327</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>杏花疏影清风</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.9万</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2024-04-13 13:05:54</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>333</v>
+      </c>
+      <c r="G20" t="n">
+        <v>26</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>#追风者# 震惊！ 我刚知道，过个清明节给我调休的痛不欲生，这过个五一节，还要大调休！ 服了！ 来来来，用《追风者》体来评价一下调休： 调休，是妥协的艺术。 我真的是以周日还要上班为耻！ 你鞋带开了！</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6381022269</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>干脆叫绿豆沙</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2024-04-13 12:43:13</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>是我天生周末不爱在家吗 怎么我今天还在上班#五一调休前后周末都要上班#</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1784659924</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>阿很K</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2024-04-13 16:17:49</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>有时候是真的不愿意喷， 但是不得不让人生气， 连个双休都没办法给整好来，每天调休， 听不听人民骂不骂你们？#五一调休#</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6499109947</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>冒牌w明星</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2024-04-13 13:41:56</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>#五一假期前后都要调休上班#放一个五一，放假前上8天班，放假回来上6天，搞这么累干嘛啊，我大小周已经很累了，放一个假，更累</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7581971201</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>源味harry</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2024-04-13 14:25:14</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>#五一调休放5天#放不起别放</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2166815524</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>yyyyy0126</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1724</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2024-04-13 13:28:46</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>连续上了六天班，到现在都没缓过来感觉 五一小长假又要调休 真的挺烦这样的调休放假。。。</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2891375757</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>沉默的默沉0511</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2024-04-13 11:14:50</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>#五一调休# 从最上层开始往下，充满了算计</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5494970072</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>南極破冰船_</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2024-04-13 12:39:37</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>#五一其实只放1天#看到两天调休，要上两个六天班，实际上只有一天假这些，我真的要晕倒了，六天班真的是要命啊……神金吧……骂了这么多年了为什么还不改……打工人的意愿是一点都不重要是吗？真的很悲哀……</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1953022600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>橘子小汽水啊啊啊</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2024-04-13 16:08:57</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>咱就是说 五一这个调休 离了个大谱啊#五一调休#</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7783811760</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>overi1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2024-04-13 13:37:34</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>我好难受刚上完六天就期中考考完又上六天五一调休我去尼玛de</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2100625405</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>王杰的洁</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2024-04-13 14:19:51</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>五一我是这么计划的 周六回家周日调休周一二请假多么完美的九天 当我准备抢票的时候发现我的年假没有了没有了 我在发疯的路上徘徊</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6336952013</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>湫木染墨</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2024-04-13 13:19:42</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>我说你让我放五一还调休不如不放假把双休还给我</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5946974854</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>一只过期的秋刀鱼</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2024-04-13 11:10:08</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>五一调休前我要连上九天班</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7768381120</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>什么时候才可以不打工</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2024-04-13 12:37:23</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>#调休滚出节假日##调休滚出假期##五一假期前后都要调休上班# 调休滚出拆那</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7397275631</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>res1_name_glance</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2024-04-13 11:29:50</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>五一，鄙人要鼓起勇气调休两天，连着周六日和五一假期休个九天（上班上疯了）</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2811498363</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Eric_辰辰辰</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.1万</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2024-04-12 13:06:17</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>32</v>
+      </c>
+      <c r="G35" t="n">
+        <v>20</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>#五一其实只放1天# 我倒想看看单休的人，在五一是怎么个调休，前后都要连上十几天班嘛 #运动打卡##健身#</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7885851404</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>随便逛逛吃吃</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2024-04-13 13:36:18</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>上午交警信息一发来立刻马上赶回家挪车，到地了才发现信息有误打人工说不在工作时间我还在纳闷，结果一想原来人家双休，而我单休明天还要继续加班好累😫清明调休上到下周要连续十五天然后月底又又又要开始五一调休毁灭吧真的</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7789023483</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>腿毛儿的泡面</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2024-04-13 14:19:11</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>#单休熬到周末是什么体验# 听说五一又要调休，打工人怎么活啊，连续上这么多天班真的很累</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>6630277831</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>KinPuppyLove_</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2024-04-13 13:09:18</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>#每天开欣# 一想到五一还要调休😓 整个人都麻了 还把相机摔了心痛痛</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3941120716</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>自渡者呀</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2024-04-13 11:10:00</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>盲猜五一调休都挡不住一些人出游计划，短短的一个月要上两次六天班，喜欢上班的朋友有福哦</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5847587249</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>未见皂白Bye</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2024-04-13 12:29:07</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>#五一调休##五一其实只放1天# 比起上班更让人讨厌的是调休，知道我上个星期六天过得有多么煎熬，五一还要这样，到底是哪个专家设计的，合理吗？！</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2403459594</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>小兵从军</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>32.4万</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2024-04-13 12:01:48</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>带娃溜达溜达大人也一起玩 #生活的模样##宝宝成长记录##五一调休# 漳州</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7824947352</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>板栗派_</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2024-04-13 11:29:12</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>最近失眠。累累的。 感觉情绪越来越稳定了 可能（ 立体几何是谁在学 怎么一错一个准 五一你再调休试试呢。 买谷带谷感觉特别有陪伴感</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7786851109</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>问我心理价就是15</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2024-04-13 16:05:34</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>#五一调休#谁发明的调休啊 我愿意少放几天也不愿意连着上学</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5979495016</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>许超医生</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>442.8万</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2024-04-12 10:35:01</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>5947</v>
+      </c>
+      <c r="G44" t="n">
+        <v>527</v>
+      </c>
+      <c r="H44" t="n">
+        <v>111</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>其实，五一假期实际只有一天，剩下的四天有两天周末和因为五一调休过来的其他周末 #五一其实只放1天#</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5444396602</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>慵懒少女-card</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2024-04-13 14:18:42</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>感觉小假期没有过去多久，五一小长假又快到了，虽然不喜欢调休但是可以安排旅游</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>6384607697</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>鉨的橙七</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2024-04-13 13:04:02</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>#五一调休#放不了假就别放 天天整调休 打心底里其实就没尊重劳动者 压根就没想过让劳动人民休息，是吧？</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3260558901</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>辣手小球</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2024-04-13 11:05:50</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>#五一不放假联盟# 这么个调休法，还不如不放假</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2205295854</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>成都应急</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10.2万</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2024-04-13 12:23:01</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>#2024五一放假安排来了##五一调休放5天#【假期出游指南】五一假期就要来了，想好去哪游玩了吗？假期出游时消防安全也不能忽略！安仔提醒：假期出游~请不要忘记带上这份出行小贴士~ @湖北消防 @宜昌消防 成都应急的微博视频</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1866786600</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>没品电影</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>404.8万</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2024-04-12 15:45:01</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>149</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3</v>
+      </c>
+      <c r="H49" t="n">
+        <v>14</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>当你意识到#五一调休放5天# 但#五一其实只放1天#</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7796713053</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>沐夕晨double</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2024-04-13 11:26:53</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" t="n">
+        <v>6</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>迟迟未出发#五一调休放5天#值班两天➕周末两天➕调休两天，我倒贴一天班，放得漂亮</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5822570862</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>墨說財經</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>83.9万</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2024-04-13 14:04:27</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>6</v>
+      </c>
+      <c r="G51" t="n">
+        <v>10</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>#俄罗斯# 俄罗斯五一放假11天，凭什么不调休？
+俄罗斯五一劳动节3天假、5月9日卫国战争胜利日放假4天，中间间隔4天是俄罗斯国家赠送的4天假日。一共长达11天，俄罗斯没有调休的惯例，也就是说不用补班。
+咱们的五一节5天假，有2天是周六末，有2天需要调休补班，算起来的话，五一节我们其实只有一天假。
+但是调休凑长假，可以让人们有时间出去旅游消费拉动经济。同时兼顾了工作（生产）。
+可以说调休才是世界上最伟大的发明：一边让你把钱花了，一边让你把活也干了。等于拉动了双倍的GDP。</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2983696765</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>在追星的路上</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2024-04-13 14:17:09</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>#单休熬到周末是什么体验#据说五一又要调休，到底是谁发明的这个调休啊！！！能不能让他自己今天把明天的饭吃了，明天不吃饭啊！</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>7026528998</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>长米咕咚肉_</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1172</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2024-04-13 13:03:52</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>#五一其实只放1天#建议取消调休 放你妹呢…^ ^</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6420556082</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>la_banshee</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2024-04-13 11:04:43</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>#五一调休#社畜的命也是命，没有社畜大老爷们也成为不了大老爷，这么折腾社畜对大老爷们有什么好处</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5609635967</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>有光光光光光</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2024-04-13 12:22:40</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>想到由于nj大会，和五一调休，我科28号值班的那个倒霉蛋可能要一口气连上14天拉满班....</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2792673272</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>mmmmmeinmbvv</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2024-04-13 11:53:37</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>真的很有必要投诉调休的安排！！！让孩子一周上六天学，有毛病吗！！！！！！！！！#全国乙型流感占比连续6周上升##调休##五一调休# 假日办的吃屎吧！</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>6438969608</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>小徐劳斯coisini</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2024-04-13 11:25:03</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>五一调休不准再调周五了！。。听见没有。。</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>6548690820</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>keneko</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2024-04-13 14:14:32</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>#五一调休#从我做起，不出门不消费</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7515121329</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>小王的碎碎念日常y</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2024-04-13 13:02:18</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>3</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>清明调休连七天班就算了 惊奇的发现五一调休连八天班 谁发明的调休啊</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>6004281123</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>梨视频</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2590.1万</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2024-04-12 11:30:06</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1085</v>
+      </c>
+      <c r="G60" t="n">
+        <v>123</v>
+      </c>
+      <c r="H60" t="n">
+        <v>98</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>【#调休痛苦是有科学依据的#】为什么调休看似凑出了小长假，却让人感到更痛苦了？这份情绪背后其实是有科学依据的，调休不仅在心理上会让人出现损失厌恶，一周内长时间的工作也会让人身体疲惫，降低工作效率。#调休到底有多痛苦#？ #五一其实只放1天#</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7904438454</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>打个游戏怎么你了</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.9万</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2024-04-12 08:32:17</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>1904</v>
+      </c>
+      <c r="G61" t="n">
+        <v>75</v>
+      </c>
+      <c r="H61" t="n">
+        <v>373</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>#五一调休放5天# 为什么大家都那么讨厌调休，却还是取消不了？ 这篇文章看完太扎心了。 能不能取消调休多给几天假期？ 我想多点时间宅家里打游戏 #游戏新星媒体扶持计划#</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>6587265979</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Jiat32584769</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2024-04-13 11:53:23</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>清明时节雨纷纷，放假结束七天班马上又要五一了，又要调休了，真是调休又调休，调休何其多啊</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>3322131564</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>子的叶</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2024-04-13 11:24:01</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>#放三天补一天的意义是什么# 前9后8的，想爆粗口了😡#五一调休#</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5244183267</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>麒麟神侯</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>187.7万</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2024-04-12 12:49:43</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>223</v>
+      </c>
+      <c r="G64" t="n">
+        <v>20</v>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>#五一其实只放1天##调休##五一调休#
+科普一个常识，对于假期天数不要看日历怎么排，而是要看《全国年节及纪念日放假办法》，这里规定了中国公共节假日，一共11天，你不管怎么排也不会超过这个天数。这里最长的就是春节国庆3天，五一只有1天。不吹不黑的平心而论，11天放在全球190+个国家里，大概能排80+，属于中等水平，为啥我们总觉得外国人的假期要比我们多的多呢？因为人家放假出游并不主要靠公共节假日，而是带薪年假。
+所以最根本问题是：“全年假期天数(公共假期+带薪年假)”太少，调休只是个遮羞布。所谓的调休是为了解决因为假期天数少而产生的旅游、回乡和刺激消费等问题的无奈的手段而已。</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5625072359</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>池萌萌呀</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>17.6万</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2024-04-12 08:48:21</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1817</v>
+      </c>
+      <c r="G65" t="n">
+        <v>50</v>
+      </c>
+      <c r="H65" t="n">
+        <v>33</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>#五一调休放5天# 建议取消51假期，劳动节本来是为了纪念劳动者取得了8小时工作制的，我们没有取得，所以我们不需要纪念，也不需要调休。</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>6837882948</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>-左灯右行x</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2024-04-13 12:55:02</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>你有没有五一出行计划呢，聊聊吧 当然有五一出行计划啦但是现在最主要的是能够抢到票回家🚄毕竟五一有5天假虽然是调休的但是车票还是很关键的 到时候去看看风景和吃美食</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2482018143</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>缸中大脑食用者</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2024-04-13 11:00:44</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>#五一调休#神金神金神金啊！！！！！！！</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7345953819</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ABCDEwow</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2024-04-13 12:11:04</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>#调休##调休快把四月调成单休了##五一调休# 放不起别放，你们这些领导能不能理解一下普通人 真好笑</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>7125065647</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>被迫改名呵呵哒</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2024-04-13 11:51:17</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>8</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>你们知道五一节调休的两天上周几的课吗</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1434024137</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>家在依兰</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2024-04-13 11:23:17</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>2</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>看到个吐槽五一假期的本来还有双休的，硬生生调成了单休，然后五一放五天假，被安排值班，哈哈哈#五一调休#搞笑</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1226157155</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>李鲆</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>117.2万</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2024-04-13 07:39:30</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>62</v>
+      </c>
+      <c r="G71" t="n">
+        <v>14</v>
+      </c>
+      <c r="H71" t="n">
+        <v>14</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>可能有人不知道，当年#五一调休#是做了投票民调的，最后采纳的是得票最高的方案，也就是现行的调休方案。所以，
+1、大规模调研的结果，未必一定能反映真实的民意。有技巧地设计问题和采样，几乎可以得到任何你想要的答案。（说的是调研，不是五一）
+2、任何方案都不能让所有人满意。
+3、满意的人往往懒得发声，不满的人才会大声嚷嚷。
+4、100个人里，有4个人大声嚷嚷，大家就会误以为，他们代表了100个人的意见。
+5、所以，做决策的逻辑是：集思广益，然后独断专行。
+6、你认为自己是对的，就独断专行，一意孤行，不用在乎别人的意见。</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>7467277921</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>西部决策</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>782.9万</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2024-04-12 15:44:34</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>943</v>
+      </c>
+      <c r="G72" t="n">
+        <v>118</v>
+      </c>
+      <c r="H72" t="n">
+        <v>41</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>【#调休是否是假装放假#】#我们能不能不调休# 五一越来越近，关于调休、加班等话题再一次冲上热搜。对于“调休”有人赞成有人反对。
+也许，大家反对调休，反对的关键在于“调”，该上的班一天不少，不如不调。
+我国的法定节日休假制度经历过几轮演变之后，从1999年开始，国务院修订的《全国年节及纪念日放假办法 》将五一劳动节延长为放假三天，但是在实施中一直是通过“上移下借”两个周末的形式，来形成每年长达三个七天的全国性长假。
+大家对春节、“五一”、国庆三个7天小长假的记忆应该是从对1999年国庆节开始，黄金周也是那时候正式登上历史的舞台的。
+随着2007年《全国年节及纪念日放假办法 》再次迎来修订，“五一”假期从三天变成了一天，放假一天，同时允许周末“上移下错”，和法定节假日形成连休。
+新规定2008年1月1日起开始实施，一直持续至今。假期有借就得有还，这就是被很多人吐槽的调休制度。#调休多上一天班为什么这么累# @西部决策 年轻人为何不喜欢调休？或许我们是在反对“假装放假”</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1815223775</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>娱乐西瓜酱</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>48.7万</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2024-04-13 12:54:58</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>别人的大学：五一休息九天，不调休。只有我实际休息一天吗？？五一放假调休大学生#优质博文上热搜开放计划##转发接龙开新年##亿点曝光计划# 娱乐西瓜酱的微博视频</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>5115545406</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>执拗的娜娜</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2024-04-13 10:49:18</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>话说我怎么觉得五一就放了一天假周六周日本来也放假，还要补班两天#五一调休#</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>7868885883</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>小敬畏zz</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2024-04-13 11:43:55</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>#五一调休放5天#调休，调你妈啊 谁要连续上班？</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1498396803</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>中国天气</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>235.4万</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2024-04-12 11:33:20</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>89</v>
+      </c>
+      <c r="G76" t="n">
+        <v>90</v>
+      </c>
+      <c r="H76" t="n">
+        <v>12</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>#五一其实只放1天##五一调休放5天# 大家已经在展望五一假期了，但是下下周要上6天班，五一假期结束又是上6天班</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>6123422058</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>bessie旅游业演唱会门票app会员</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2024-04-13 13:34:25</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>以前小时候没有清明 中秋这些假 国庆 劳动节都是放实实在在7天、然后为了推广中国传统节日 把51 假分出去、所谓这个3天 那个假放3天、但每次都需要调休 挑来挑去 所有的节假日实际都变成一天了 ！我还要你放什么、谁发明的调休 既然放不起就别放、51从7天变成现在1天
+#五一劳动节##五一假期前后都要调休上班##五一其实只放1天#</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>7825263594</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>小苦瓜发疯日记</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2024-04-13 12:47:16</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>#我已经在担心五一放假了# 别调休了好吗</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1902256024</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>青春的泥沼</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>8.1万</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2024-04-12 16:18:46</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>32</v>
+      </c>
+      <c r="G79" t="n">
+        <v>26</v>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>#五一调休##五一其实只放1天# 五一本来就是一天，真的，大家可以看《全国年节及纪念日放假办法》。 这就是我国的法定节假日，除夕不是法定节假日，我说过好几次了，五一也只放1天假。 所以#调休# 也就是拼凑假期，你懂吧。</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2883768444</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>青羊共青团</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>60.5万</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2024-04-13 11:37:00</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>【出行有变！4月12日零时起，铁路调图！】🎙4月12日零时起，成都局集团公司将实行新的列车运行图，调图后，成都局集团公司旅客列车开行总数将达到868.5对，西南铁路运输能力得到新提升，将进一步满足人民群众出行需求。↓#五一调休#</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1925878362</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SMGNEWS</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>35.7万</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2024-04-13 11:19:01</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>2</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>【五一不调休放假9天，这所高校被称“放假大学”？】11日，江苏苏州常熟理工学院，有多名学生发帖晒出学校发布的《五一假期通知》。通知中提到：该校五一假期，没有调休，加上周末，实打实放假共九天。 SMGNEWS的微博视频</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1642512402</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>中国新闻周刊</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6222.1万</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2024-04-12 10:59:08</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>33866</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2935</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1007</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>【#上班族称调休是一种折磨#】#今年还要调休几次#？劳动节5月1日至5月5日放假调休，共5天。长假背后，则是4月28日（星期日）、5月11日（星期六）上班。因工作性质，从事新媒体行业的刘先生平时几乎没有正常的双休。“当一个小长假来临时，往往要以连续工作数天的代价来换取，这对于我们来说无疑是一种折磨。”刘先生称，“996”工作制已经很累了，调休让人感到更累。
+采访中，不少上班族反映了这一普遍感受。平日工作已经让他们感到压力巨大，再加上长时间的连续补班，他们的精力几乎被榨干。在这种情况下，调休制度似乎变得毫无意义，因为它并没有真正带来休息和放松的机会。
+市民刘思思说，以今年五一假期为例，为了拼凑出五天小长假，需要牺牲前后两个假日进行补班。“这种安排，我宁愿只休一天，也不愿毁掉两个完整的周末。”
+对于如何调整和完善休假制度，中国人民大学休闲经济研究中心主任王琪提出了几点构想。他主张落实并灵活执行劳动者的带薪休假制度，让劳动者能够自主调节假期。此外，他还建议适当延长小长假，以减少调休带来的疲劳感。同时，他提出可以在国企和发达地区试点“做四休三”的周休制度，并根据不同地区和企业的实际情况进行推广。#五一其实只放1天#（株洲晚报）</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>7002057008</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>慧00999</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2024-04-13 12:37:04</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>#五一假期前后都要调休上班#丝瓜炒鲜花菇
+🌾 材料；丝瓜，鲜花菇，红萝卜，姜
+🌾 调味料；植物油，素蚝油，鲜蔬粉，生粉
+1、姜切片，丝瓜去皮切块，鲜花菇洗净切片（用素蚝油、生粉腌入味），红萝卜去皮切片（焯水）
+2、用平底锅将花菇煎至金黄色装起备用
+3、热锅下少许油爆香姜，下入丝瓜和红萝卜炒香，放适量调味料，花菇回锅，勾芡炒匀即成</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>3287336624</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>童话镇里的shero</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2024-04-13 12:37:03</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>2</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>#五一其实只放1天#现在不是调休的问题，是五一假期从7天变3天现在变1天。。。最开始7天你补1天我能理解，后来减少成3天，那五一3天假➕周末休息日就是5天假期啊，为啥要这么恶心的去补班？1天还不够还要补2天，11号那周真的是硬补啊，你要是就想放一天你可以直说，本来是好好的传统节日，搞来搞去让大家怨声载道的 图啥</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>7836369167</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Bunnyslllogs</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2024-04-13 10:47:21</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>本来一开始陌生人还不确定五一会不会调休 想等着放假通知出了再决定去不去玩 但是昨晚我们已经在看票和酒店了 要带的情趣内衣也挑好了 我有点担心陌生人五一要调休 陌生人：你别管 肌肉猫嘻嘻笑：我就只管见我爸爸呀 陌生人：对呀</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2157738545</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>庄生梦蝶鹊登枝</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2024-04-13 11:30:23</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>#五一调休#民心民意在微博，热闹不起作用</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>6453991469</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>呜嗷喵了个喵</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2024-04-13 11:16:18</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>2</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>#五一调休#悟了，别老惦记那个调休了，把调休取消大家伙都开心，一开心就出去旅游消费去了，不就促进消费了？老调休怨气冲天谁开心啊？不是，到底调休谁在开心啊？</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>7397275631</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>res1_name_glance</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2024-04-13 11:29:50</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>五一，鄙人要鼓起勇气调休两天，连着周六日和五一假期休个九天（上班上疯了）</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>5582945836</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>枣枣小冰狐</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2024-04-13 11:15:53</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>我不吃不喝不起床已经消费半天了，余额还有1.5天。想到五一前后还有调休更起不来了 思考太累了活着容易 闭眼吧。</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>5340438538</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>甘泉检察</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.9万</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2024-04-13 08:59:05</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>17</v>
+      </c>
+      <c r="G90" t="n">
+        <v>7</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>【#公司用调休拒绝支付3倍加班工资合法吗#？】#五一调休#“五一”小长假即将来临，不少单位会根据工作需要，安排员工加班。那么，职工法定节假日加班后，公司以调休而拒绝支付3倍的加班工资合法吗？是否有法律依据？
+#法报君说#根据我国劳动法第四十四条规定，有下列情形之一的，用人单位应当按照下列标准支付高于劳动者正常工作时间工资的工资报酬：（一）安排劳动者延长工作时间的，支付不低于工资的百分之一百五十的工资报酬；（二）休息日安排劳动者工作又不能安排补休的，支付不低于工资的百分之二百的工资报酬；（三）法定休假日安排劳动者工作的，支付不低于工资的百分之三百的工资报酬。休息日安排劳动者加班的，可以选择安排补休或者支付不低于工资的百分之两百的工资报酬，但法定休息日安排加班的，没有法律规定可以选择调休。据此，用人单位安排职工在法定节假日加班的，不得以安排调休而拒绝支付加班工资。（作者：刘丹）视频自：最高人民法院的微博视频</t>
         </is>
       </c>
     </row>

--- a/weibom/weibom/wuyitiaoxiu1.xlsx
+++ b/weibom/weibom/wuyitiaoxiu1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,50 +470,50 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3764674343</v>
+        <v>1731734685</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>北京大土豆</t>
+          <t>黎礼李</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>f</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>191.9万</t>
+          <t>775</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-04-13 17:23:24</t>
+          <t>2024-04-13 21:25:14</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>我不太理解，每次放长假，关于反对调休的声音都很高，经常上热搜，怎么就一直不解决这个问题呢？4月被清明节和五一的调休弄的快成单休了。</t>
+          <t>#秦朗丢寒假作业系摆拍博主被处罚#这事情确实需要管理，但是我目前最关心的还是调休啊。五一那破调休谁管管？这才是老百姓最实际的民生希望领导们能看见。</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6482644851</v>
+        <v>7563371775</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>知行合一wwj</t>
+          <t>ACE-桃桃子</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,16 +523,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>1448</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-04-13 17:19:37</t>
+          <t>2024-04-13 19:20:40</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -542,17 +542,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>#五一调休放5天#说是放五天假。其实是调休。</t>
+          <t>#五一调休#救命啊🆘让我怎么活 我宁愿不放假❗❗#五一其实只放1天#</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5951906141</v>
+        <v>5138758571</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>娅雅哒</t>
+          <t>柠夏0514</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,51 +562,51 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-04-13 17:09:40</t>
+          <t>2024-04-13 21:19:19</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
-        <v>3</v>
-      </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>五一搞调休的人就是🐶🐶🐶</t>
+          <t>演员李健 当我知道五一调休，实际只放一天假时</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5831419578</v>
+        <v>7812017246</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>此博主不营业</t>
+          <t>omg滴me</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1753</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024-04-13 17:08:23</t>
+          <t>2024-04-13 19:16:56</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -620,17 +620,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>#五一调休放5天#可以可以！去哪里玩？</t>
+          <t>#五一调休放5天#我受够上六天学了</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6685382030</v>
+        <v>7636093504</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>想名有水</t>
+          <t>巴啦啦你很有名</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -640,16 +640,16 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.4万</t>
+          <t>65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024-04-13 17:06:40</t>
+          <t>2024-04-13 21:18:35</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -659,17 +659,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>#五一调休放5天#讨厌调休</t>
+          <t>真的好讨厌调休，这个五一前一周调休，后一周调休，给我一种恨不得工作全做光的感觉</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7715835292</v>
+        <v>7394802966</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MYZZbb</t>
+          <t>JYKCrX7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,36 +679,36 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-04-13 17:05:44</t>
+          <t>2024-04-13 19:10:26</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>1</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>#五一调休##五一调休补两天班##如何看待五一调休# 我请问呢.谁能体谅一下住宿生的感受，周五下午回家周六下午回学校，然后周六下午回家周天下午回学校，两周连上6天，这么折腾人你还不如别放，我放两周周末也都有4天，这个假期你是在安慰谁？本来就包含了周末还腆着脸调休，无语😅</t>
+          <t>这周连读了七天，然后五一前要调休一天，连读九天，我真的会崩溃的。。。这周情绪起起落落，做了一个贼好笑的梦，然后熄灯后盲写了三四页日记，字迹工整（伤眼睛，不建议尝试）</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5334098734</v>
+        <v>7479464407</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>泻药大漏勺</t>
+          <t>Lazj_Z</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -718,12 +718,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024-04-13 17:05:31</t>
+          <t>2024-04-13 21:18:07</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -737,56 +737,56 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>五一凭什么调休两天</t>
+          <t>#五一调休#谁给你调休的资格啊你知不知道下下周我要连上半个月的学 半个月玩不到手机 半个月不能回家 就五天假你调什么啊</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3509125700</v>
+        <v>7775737946</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GameRainy88</t>
+          <t>施主看一眼呀</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>1.7万</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024-04-13 17:04:29</t>
+          <t>2024-04-13 19:01:53</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>天哪 这周真的好累 现在才稍微缓过来 未来几周周末又要特种兵一样到处蹿希望五一的调休能让我正常放假去环球 好不容易是个大家都有空人又少的时间 球球领导别发疯</t>
+          <t>五一假期不调休放假9天，江苏一高校被称为“放假大学”，校方工作人员：教学任务完成了，就可以放假的 施主看一眼呀的微博视频</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2246158212</v>
+        <v>2938661475</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>白槎之上睡一觉</t>
+          <t>小鹿回来了啦</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -796,75 +796,75 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.6万</t>
+          <t>66</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024-04-13 16:55:43</t>
+          <t>2024-04-13 21:02:05</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>#五一其实只放1天# 这调休真的有必要吗？整的乱七八糟的，不想放就别放了正常上下班算了。看着就小气吧啦的</t>
+          <t>这周开始单休，所以今天上班了，连上七天班我的阳气感觉都遭抽完了，回家直接倒头就睡三小时…听说五一节前调休的周六也要上班，所以五一节前要连上九天，我真滴栓Q……</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5037464165</v>
+        <v>6989278238</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>纳尔耷耷</t>
+          <t>58想73学滚啊</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>f</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024-04-13 16:54:21</t>
+          <t>2024-04-13 18:55:33</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>我才发现五一调休，调的生日那天变成工作日了</t>
+          <t>#五一调休##五一其实只放1天# 就是神经。还我九天假期！</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1722479555</v>
+        <v>3163782211</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>欢笑的白鸦</t>
+          <t>平安天津</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -874,36 +874,36 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9.2万</t>
+          <t>349.3万</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024-04-13 16:54:04</t>
+          <t>2024-04-12 22:15:00</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>现在一些假装自己是过来人的小孩可能不知道，以前的五一7天假也是调休调出来的，和国庆、春节一样都是3天假期+4天的调休，不调休直接就给的7天假期只存在于咱国人民的快速眼动睡眠阶段以及别的国家。</t>
+          <t>今天五一调休安排出台又引发热议。有研究发现，工作时长每增加一个小时，多种疾病的患病风险都会受到不同程度的影响。这调休一下子增加多少小时的工作想想就可怕，能休息时就好好休息吧。#晚安啦各位#</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3103606835</v>
+        <v>5625072359</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>你男票身后有阿飘啊--</t>
+          <t>池萌萌呀</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -913,36 +913,36 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>17.6万</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024-04-13 14:09:10</t>
+          <t>2024-04-12 08:48:21</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2034</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>连上八天班 真是多余给我调这休 #五一调休#</t>
+          <t>#五一调休放5天# 建议取消51假期，劳动节本来是为了纪念劳动者取得了8小时工作制的，我们没有取得，所以我们不需要纪念，也不需要调休。</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7899020017</v>
+        <v>7781092453</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>书聂姚</t>
+          <t>all_eyesonjisoo</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024-04-13 16:37:23</t>
+          <t>2024-04-13 20:42:41</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -971,17 +971,17 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>#五一调休放5天#咪的你放假可不可以不要周末算进去啊周末是本来就要放的你清明节加上周末就放了一天假而且还要我提前一天去上学这次更nb五一假期</t>
+          <t>#五一调休# 神经病。</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1760917667</v>
+        <v>7836739923</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>霍霍霍伟伟</t>
+          <t>317LUVFF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -991,75 +991,75 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>147.3万</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024-04-12 10:27:00</t>
+          <t>2024-04-13 18:39:08</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>#五一调休放5天# 有人说新四大发明是：调休、公摊、离婚冷静期、精选评论区。</t>
+          <t>#五一##五一调休##五一假期前后都要调休上班# 没有对比就没有伤害。兰博基尼工作四天，工资上涨50%。中大型SUV看极石01，可油可电，颜值高。兰博基尼</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5430282517</v>
+        <v>5511893920</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>大同消防</t>
+          <t>土豆呼叫不拿啦</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>f</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10.2万</t>
+          <t>329</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024-04-12 09:29:37</t>
+          <t>2024-04-13 20:39:33</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>【外出旅游安全注意事项要知道】外出旅游，大家在进入商场、宾馆、酒店等公众聚集场所时，要留意安全出口的位置，一旦发生火情，要及时从安全出口撤离。 #五一调休放5天# #广西三月三到底有多好玩#</t>
+          <t>距离五一还有13个工作日（该死的中间还有个调休）</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5098834075</v>
+        <v>1821816372</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Niny-i</t>
+          <t>姜西卡ssica</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1069,75 +1069,75 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>896</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024-04-13 13:53:35</t>
+          <t>2024-04-13 18:38:38</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>五一调休完就放一天 真会玩。</t>
+          <t>六天过得人要昏厥了 周六也快过完啦 想到五一调休，我要缺氧了 对了，请大家都去看《医爱之名》啊啊啊啊啊啊 我已经沦陷……#日常碎片plog##春游去#</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3296944765</v>
+        <v>1821158551</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Floveet919</t>
+          <t>LittleJean88</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>574</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024-04-13 16:19:43</t>
+          <t>2024-04-13 20:33:35</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>五一调休连上九天班———我死了 五一去北海———我又活了</t>
+          <t>五一就放一天假不行吗？不调休！把我的周六还给我</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7291437038</v>
+        <v>6794749787</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>虾嘎嘎嘎</t>
+          <t>-祁予-</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1147,36 +1147,36 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024-04-13 13:45:01</t>
+          <t>2024-04-13 18:36:00</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>我到底还要上几个六天……别调了#五一调休#</t>
+          <t>连续了七天班之后，终于可以休息一天了，但好像也麻木了，有一丝窃喜的是，单休打工人看到五一假期后的调休是周六，想着周六本来就要上班</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2458105327</v>
+        <v>7002151746</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>杏花疏影清风</t>
+          <t>六月晴无风雨</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1186,36 +1186,36 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.9万</t>
+          <t>3569</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024-04-13 13:05:54</t>
+          <t>2024-04-13 18:35:40</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>333</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>#追风者# 震惊！ 我刚知道，过个清明节给我调休的痛不欲生，这过个五一节，还要大调休！ 服了！ 来来来，用《追风者》体来评价一下调休： 调休，是妥协的艺术。 我真的是以周日还要上班为耻！ 你鞋带开了！</t>
+          <t>#五一调休放5天#额其实我不想说你了</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6381022269</v>
+        <v>6012350660</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>干脆叫绿豆沙</t>
+          <t>爱老烊啊</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1225,90 +1225,90 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024-04-13 12:43:13</t>
+          <t>2024-04-13 15:47:21</t>
         </is>
       </c>
       <c r="F21" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" t="n">
         <v>1</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>是我天生周末不爱在家吗 怎么我今天还在上班#五一调休前后周末都要上班#</t>
+          <t>#五一调休#休不起别休，本来就是为了纪念八小时工作制的节日，我们又没有，所以建议直接取消劳动节呢亲</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1784659924</v>
+        <v>6482644851</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>阿很K</t>
+          <t>知行合一wwj</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>f</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>636</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024-04-13 16:17:49</t>
+          <t>2024-04-13 17:19:37</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>有时候是真的不愿意喷， 但是不得不让人生气， 连个双休都没办法给整好来，每天调休， 听不听人民骂不骂你们？#五一调休#</t>
+          <t>#五一调休放5天#说是放五天假。其实是调休。</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6499109947</v>
+        <v>7450508627</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>冒牌w明星</t>
+          <t>Dear-馋喝百香果的小欣</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>f</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>84</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024-04-13 13:41:56</t>
+          <t>2024-04-13 20:29:28</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1322,17 +1322,17 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>#五一假期前后都要调休上班#放一个五一，放假前上8天班，放假回来上6天，搞这么累干嘛啊，我大小周已经很累了，放一个假，更累</t>
+          <t>#调休快把四月调成单休了#气死我了 五一放假还要调休两个周六 我都快崩溃了。。。</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7581971201</v>
+        <v>2430366112</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>源味harry</t>
+          <t>伽小梨ul</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1342,16 +1342,16 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024-04-13 14:25:14</t>
+          <t>2024-04-13 15:46:24</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1361,17 +1361,17 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>#五一调休放5天#放不起别放</t>
+          <t>#五一调休放5天#其实…五一不是劳动人民的假期？看看这给劳动人民调休调的什么👻样？？？我就只想安静的休息…没有电话，不用加班，不用值班。歇啊…</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2166815524</v>
+        <v>2789629045</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>yyyyy0126</t>
+          <t>乜乜乜唱</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1381,12 +1381,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1724</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024-04-13 13:28:46</t>
+          <t>2024-04-13 17:12:47</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1400,17 +1400,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>连续上了六天班，到现在都没缓过来感觉 五一小长假又要调休 真的挺烦这样的调休放假。。。</t>
+          <t>五一假期实在令人恶心，又想赚打工人的钱，又想要打工人的命，放不起别放了。#五一假期##五一假期调休#</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2891375757</v>
+        <v>5037464165</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>沉默的默沉0511</t>
+          <t>纳尔耷耷</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1420,12 +1420,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>130</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024-04-13 11:14:50</t>
+          <t>2024-04-13 16:54:21</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>#五一调休# 从最上层开始往下，充满了算计</t>
+          <t>我才发现五一调休，调的生日那天变成工作日了</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5494970072</v>
+        <v>7604116469</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>南極破冰船_</t>
+          <t>e吃番茄意面</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1459,16 +1459,16 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>138</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024-04-13 12:39:37</t>
+          <t>2024-04-13 20:27:43</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1478,32 +1478,32 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>#五一其实只放1天#看到两天调休，要上两个六天班，实际上只有一天假这些，我真的要晕倒了，六天班真的是要命啊……神金吧……骂了这么多年了为什么还不改……打工人的意愿是一点都不重要是吗？真的很悲哀……</t>
+          <t>#五一调休#讨厌调休啊啊啊啊啊</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1953022600</v>
+        <v>3516574547</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>橘子小汽水啊啊啊</t>
+          <t>商洛公安</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>6.1万</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024-04-13 16:08:57</t>
+          <t>2024-04-13 15:27:00</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1517,17 +1517,17 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>咱就是说 五一这个调休 离了个大谱啊#五一调休#</t>
+          <t>【法定节假日加班后 还给加班费吗】 在放假期间有很多人需要坚守岗位，那么法定节假日加班后被安排补休，公司还用支付加班费吗？戳视频，一起了解。学法律涨知识！#五一调休放5天#苏州公安的微博视频</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>7783811760</v>
+        <v>5951906141</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>overi1</t>
+          <t>娅雅哒</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1537,75 +1537,75 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>144</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024-04-13 13:37:34</t>
+          <t>2024-04-13 17:09:40</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>我好难受刚上完六天就期中考考完又上六天五一调休我去尼玛de</t>
+          <t>五一搞调休的人就是🐶🐶🐶</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2100625405</v>
+        <v>1722479555</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>王杰的洁</t>
+          <t>欢笑的白鸦</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9.2万</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024-04-13 14:19:51</t>
+          <t>2024-04-13 16:54:04</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>五一我是这么计划的 周六回家周日调休周一二请假多么完美的九天 当我准备抢票的时候发现我的年假没有了没有了 我在发疯的路上徘徊</t>
+          <t>现在一些假装自己是过来人的小孩可能不知道，以前的五一7天假也是调休调出来的，和国庆、春节一样都是3天假期+4天的调休，不调休直接就给的7天假期只存在于咱国人民的快速眼动睡眠阶段以及别的国家。</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6336952013</v>
+        <v>3297005032</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>湫木染墨</t>
+          <t>云里的鱼-</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1615,36 +1615,36 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>167</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024-04-13 13:19:42</t>
+          <t>2024-04-13 14:50:59</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>我说你让我放五一还调休不如不放假把双休还给我</t>
+          <t>突然萌生周末去珠海的海岛上来个两天一夜散心之旅的想法，又有了继续生活下去的希望，但由于五一恶心的调休导致不能说走就走🫨（因为想逃离，所以开始享受出发在路上的感觉</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5946974854</v>
+        <v>3829142660</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>一只过期的秋刀鱼</t>
+          <t>你要去哪裡欸</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1654,36 +1654,36 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>104</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024-04-13 11:10:08</t>
+          <t>2024-04-13 20:25:50</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>五一调休前我要连上九天班</t>
+          <t>终于结束7/7的工作日 调休对于实行单双休的打工人来说简直生无可恋 看了眼五一假期 再过一礼拜又要开始为五一调休了呢 想出调休制度的人才到底是有多恨假期呢</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7768381120</v>
+        <v>2166815524</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>什么时候才可以不打工</t>
+          <t>yyyyy0126</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1693,36 +1693,36 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>1724</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024-04-13 12:37:23</t>
+          <t>2024-04-13 13:28:46</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>#调休滚出节假日##调休滚出假期##五一假期前后都要调休上班# 调休滚出拆那</t>
+          <t>连续上了六天班，到现在都没缓过来感觉 五一小长假又要调休 真的挺烦这样的调休放假。。。</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7397275631</v>
+        <v>7828927597</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>res1_name_glance</t>
+          <t>柚甜甜_</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1732,12 +1732,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024-04-13 11:29:50</t>
+          <t>2024-04-13 18:33:22</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1751,56 +1751,56 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>五一，鄙人要鼓起勇气调休两天，连着周六日和五一假期休个九天（上班上疯了）</t>
+          <t>五一只放一天假还有调休好崩溃 能不能别调休了</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2811498363</v>
+        <v>3232300822</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Eric_辰辰辰</t>
+          <t>秋事促西风2014</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>f</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.1万</t>
+          <t>244</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024-04-12 13:06:17</t>
+          <t>2024-04-13 15:22:19</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>#五一其实只放1天# 我倒想看看单休的人，在五一是怎么个调休，前后都要连上十几天班嘛 #运动打卡##健身#</t>
+          <t>#五一调休放5天#最不要脸的就是假日办的调休政策了，被剥夺了五一假期迎接医院评审的我们，还额外被剥夺了一前一后两个周末。假日办真的有必要存在吗？#医院等级评审#</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>7885851404</v>
+        <v>5831419578</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>随便逛逛吃吃</t>
+          <t>此博主不营业</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1810,36 +1810,36 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1753</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024-04-13 13:36:18</t>
+          <t>2024-04-13 17:08:23</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>上午交警信息一发来立刻马上赶回家挪车，到地了才发现信息有误打人工说不在工作时间我还在纳闷，结果一想原来人家双休，而我单休明天还要继续加班好累😫清明调休上到下周要连续十五天然后月底又又又要开始五一调休毁灭吧真的</t>
+          <t>#五一调休放5天#可以可以！去哪里玩？</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>7789023483</v>
+        <v>7899020017</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>腿毛儿的泡面</t>
+          <t>书聂姚</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1849,16 +1849,16 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>101</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024-04-13 14:19:11</t>
+          <t>2024-04-13 16:37:23</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1868,17 +1868,17 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>#单休熬到周末是什么体验# 听说五一又要调休，打工人怎么活啊，连续上这么多天班真的很累</t>
+          <t>#五一调休放5天#咪的你放假可不可以不要周末算进去啊周末是本来就要放的你清明节加上周末就放了一天假而且还要我提前一天去上学这次更nb五一假期</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6630277831</v>
+        <v>2458105327</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>KinPuppyLove_</t>
+          <t>杏花疏影清风</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1888,36 +1888,36 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>4.9万</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024-04-13 13:09:18</t>
+          <t>2024-04-13 13:05:54</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>#每天开欣# 一想到五一还要调休😓 整个人都麻了 还把相机摔了心痛痛</t>
+          <t>#追风者# 震惊！ 我刚知道，过个清明节给我调休的痛不欲生，这过个五一节，还要大调休！ 服了！ 来来来，用《追风者》体来评价一下调休： 调休，是妥协的艺术。 我真的是以周日还要上班为耻！ 你鞋带开了！</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3941120716</v>
+        <v>7842198272</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>自渡者呀</t>
+          <t>麻辣烫到底烫不烫啊</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1927,12 +1927,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>1万</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2024-04-13 11:10:00</t>
+          <t>2024-04-13 20:25:09</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -1946,17 +1946,17 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>盲猜五一调休都挡不住一些人出游计划，短短的一个月要上两次六天班，喜欢上班的朋友有福哦</t>
+          <t>#五一调休#我讨厌你们</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5847587249</v>
+        <v>6336952013</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>未见皂白Bye</t>
+          <t>湫木染墨</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1966,75 +1966,75 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2024-04-13 12:29:07</t>
+          <t>2024-04-13 13:19:42</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>#五一调休##五一其实只放1天# 比起上班更让人讨厌的是调休，知道我上个星期六天过得有多么煎熬，五一还要这样，到底是哪个专家设计的，合理吗？！</t>
+          <t>我说你让我放五一还调休不如不放假把双休还给我</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2403459594</v>
+        <v>7857929868</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>小兵从军</t>
+          <t>-听雨敲窗</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>f</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>32.4万</t>
+          <t>1008</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024-04-13 12:01:48</t>
+          <t>2024-04-13 18:29:19</t>
         </is>
       </c>
       <c r="F41" t="n">
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>带娃溜达溜达大人也一起玩 #生活的模样##宝宝成长记录##五一调休# 漳州</t>
+          <t>一想到半个月后五一调休让我丢了两个周日我就生气 放不起就别放</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7824947352</v>
+        <v>3103606835</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>板栗派_</t>
+          <t>你男票身后有阿飘啊--</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2044,36 +2044,36 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>438</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024-04-13 11:29:12</t>
+          <t>2024-04-13 14:09:10</t>
         </is>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>最近失眠。累累的。 感觉情绪越来越稳定了 可能（ 立体几何是谁在学 怎么一错一个准 五一你再调休试试呢。 买谷带谷感觉特别有陪伴感</t>
+          <t>连上八天班 真是多余给我调这休 #五一调休#</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7786851109</v>
+        <v>5873143876</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>问我心理价就是15</t>
+          <t>你眉眼弯弯笑得可爱</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2083,114 +2083,114 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024-04-13 16:05:34</t>
+          <t>2024-04-13 15:13:47</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>#五一调休#谁发明的调休啊 我愿意少放几天也不愿意连着上学</t>
+          <t>#五一调休# 今天是单休人清明假期后连着上的第八天你知道这对我的身心造成了多么大的伤害吗</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5979495016</v>
+        <v>6685382030</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>许超医生</t>
+          <t>想名有水</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>f</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>442.8万</t>
+          <t>1.4万</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2024-04-12 10:35:01</t>
+          <t>2024-04-13 17:06:40</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5947</v>
+        <v>16</v>
       </c>
       <c r="G44" t="n">
-        <v>527</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>其实，五一假期实际只有一天，剩下的四天有两天周末和因为五一调休过来的其他周末 #五一其实只放1天#</t>
+          <t>#五一调休放5天#讨厌调休</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5444396602</v>
+        <v>5430282517</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>慵懒少女-card</t>
+          <t>大同消防</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>10.2万</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024-04-13 14:18:42</t>
+          <t>2024-04-12 09:29:37</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>感觉小假期没有过去多久，五一小长假又快到了，虽然不喜欢调休但是可以安排旅游</t>
+          <t>【外出旅游安全注意事项要知道】外出旅游，大家在进入商场、宾馆、酒店等公众聚集场所时，要留意安全出口的位置，一旦发生火情，要及时从安全出口撤离。 #五一调休放5天# #广西三月三到底有多好玩#</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6384607697</v>
+        <v>7581971201</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>鉨的橙七</t>
+          <t>源味harry</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2200,51 +2200,51 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-04-13 13:04:02</t>
+          <t>2024-04-13 14:25:14</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>#五一调休#放不了假就别放 天天整调休 打心底里其实就没尊重劳动者 压根就没想过让劳动人民休息，是吧？</t>
+          <t>#五一调休放5天#放不起别放</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3260558901</v>
+        <v>7745205554</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>辣手小球</t>
+          <t>巧克力酱喵喵</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>f</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>609</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-04-13 11:05:50</t>
+          <t>2024-04-13 20:24:32</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2258,216 +2258,212 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>#五一不放假联盟# 这么个调休法，还不如不放假</t>
+          <t>#五一调休#谁发明的出来</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2205295854</v>
+        <v>6630277831</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>成都应急</t>
+          <t>KinPuppyLove_</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>f</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>10.2万</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-04-13 12:23:01</t>
+          <t>2024-04-13 13:09:18</t>
         </is>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>#2024五一放假安排来了##五一调休放5天#【假期出游指南】五一假期就要来了，想好去哪游玩了吗？假期出游时消防安全也不能忽略！安仔提醒：假期出游~请不要忘记带上这份出行小贴士~ @湖北消防 @宜昌消防 成都应急的微博视频</t>
+          <t>#每天开欣# 一想到五一还要调休😓 整个人都麻了 还把相机摔了心痛痛</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1866786600</v>
+        <v>7401878643</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>没品电影</t>
+          <t>陈惊世</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>f</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>404.8万</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-04-12 15:45:01</t>
+          <t>2024-04-13 18:22:25</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>当你意识到#五一调休放5天# 但#五一其实只放1天#</t>
+          <t>今年五一调休还以为教资会调时间呢</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>7796713053</v>
+        <v>1760917667</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>沐夕晨double</t>
+          <t>霍霍霍伟伟</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>147.3万</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-04-13 11:26:53</t>
+          <t>2024-04-12 10:27:00</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>417</v>
       </c>
       <c r="G50" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>迟迟未出发#五一调休放5天#值班两天➕周末两天➕调休两天，我倒贴一天班，放得漂亮</t>
+          <t>#五一调休放5天# 有人说新四大发明是：调休、公摊、离婚冷静期、精选评论区。</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5822570862</v>
+        <v>6173327733</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>墨說財經</t>
+          <t>保持热忱-Likn</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>f</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>83.9万</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2024-04-13 14:04:27</t>
+          <t>2024-04-13 15:01:46</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>#俄罗斯# 俄罗斯五一放假11天，凭什么不调休？
-俄罗斯五一劳动节3天假、5月9日卫国战争胜利日放假4天，中间间隔4天是俄罗斯国家赠送的4天假日。一共长达11天，俄罗斯没有调休的惯例，也就是说不用补班。
-咱们的五一节5天假，有2天是周六末，有2天需要调休补班，算起来的话，五一节我们其实只有一天假。
-但是调休凑长假，可以让人们有时间出去旅游消费拉动经济。同时兼顾了工作（生产）。
-可以说调休才是世界上最伟大的发明：一边让你把钱花了，一边让你把活也干了。等于拉动了双倍的GDP。</t>
+          <t>因为清明放假调休，4.6-4.13连上八天班 因为五一放假调休，4.22-4.30连上九天 放不起假就不要放假，不要又当又立</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2983696765</v>
+        <v>7715835292</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>在追星的路上</t>
+          <t>MYZZbb</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>f</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1059</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2024-04-13 14:17:09</t>
+          <t>2024-04-13 17:05:44</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>#单休熬到周末是什么体验#据说五一又要调休，到底是谁发明的这个调休啊！！！能不能让他自己今天把明天的饭吃了，明天不吃饭啊！</t>
+          <t>#五一调休##五一调休补两天班##如何看待五一调休# 我请问呢.谁能体谅一下住宿生的感受，周五下午回家周六下午回学校，然后周六下午回家周天下午回学校，两周连上6天，这么折腾人你还不如别放，我放两周周末也都有4天，这个假期你是在安慰谁？本来就包含了周末还腆着脸调休，无语😅</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>7026528998</v>
+        <v>3296944765</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>长米咕咚肉_</t>
+          <t>Floveet919</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2477,36 +2473,36 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1172</t>
+          <t>685</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2024-04-13 13:03:52</t>
+          <t>2024-04-13 16:19:43</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>#五一其实只放1天#建议取消调休 放你妹呢…^ ^</t>
+          <t>五一调休连上九天班———我死了 五一去北海———我又活了</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6420556082</v>
+        <v>2100625405</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>la_banshee</t>
+          <t>王杰的洁</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2516,36 +2512,36 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2024-04-13 11:04:43</t>
+          <t>2024-04-13 14:19:51</t>
         </is>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>#五一调休#社畜的命也是命，没有社畜大老爷们也成为不了大老爷，这么折腾社畜对大老爷们有什么好处</t>
+          <t>五一我是这么计划的 周六回家周日调休周一二请假多么完美的九天 当我准备抢票的时候发现我的年假没有了没有了 我在发疯的路上徘徊</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5609635967</v>
+        <v>3764674343</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>有光光光光光</t>
+          <t>北京大土豆</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2555,36 +2551,36 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>191.9万</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2024-04-13 12:22:40</t>
+          <t>2024-04-13 17:23:24</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1261</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>想到由于nj大会，和五一调休，我科28号值班的那个倒霉蛋可能要一口气连上14天拉满班....</t>
+          <t>我不太理解，每次放长假，关于反对调休的声音都很高，经常上热搜，怎么就一直不解决这个问题呢？4月被清明节和五一的调休弄的快成单休了。</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2792673272</v>
+        <v>7026528998</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>mmmmmeinmbvv</t>
+          <t>长米咕咚肉_</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2594,16 +2590,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>1172</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2024-04-13 11:53:37</t>
+          <t>2024-04-13 13:03:52</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2613,17 +2609,17 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>真的很有必要投诉调休的安排！！！让孩子一周上六天学，有毛病吗！！！！！！！！！#全国乙型流感占比连续6周上升##调休##五一调休# 假日办的吃屎吧！</t>
+          <t>#五一其实只放1天#建议取消调休 放你妹呢…^ ^</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6438969608</v>
+        <v>2840696732</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>小徐劳斯coisini</t>
+          <t>花折o0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2633,36 +2629,36 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>453</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2024-04-13 11:25:03</t>
+          <t>2024-04-13 18:15:48</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>五一调休不准再调周五了！。。听见没有。。</t>
+          <t>五一假期放三天，回来上八天班！还不如不放假，正常休息不好嘛#五一假期##五一调休#</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6548690820</v>
+        <v>5098834075</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>keneko</t>
+          <t>Niny-i</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2672,16 +2668,16 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2024-04-13 14:14:32</t>
+          <t>2024-04-13 13:53:35</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2691,17 +2687,17 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>#五一调休#从我做起，不出门不消费</t>
+          <t>五一调休完就放一天 真会玩。</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>7515121329</v>
+        <v>1716939240</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>小王的碎碎念日常y</t>
+          <t>年子想静静</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2711,16 +2707,16 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>236</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2024-04-13 13:02:18</t>
+          <t>2024-04-13 15:00:15</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2730,56 +2726,56 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>清明调休连七天班就算了 惊奇的发现五一调休连八天班 谁发明的调休啊</t>
+          <t>五一调休，还得值日一天，嗯，等于没休。</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>6004281123</v>
+        <v>5334098734</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>梨视频</t>
+          <t>泻药大漏勺</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>f</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2590.1万</t>
+          <t>71</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2024-04-12 11:30:06</t>
+          <t>2024-04-13 17:05:31</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1085</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>【#调休痛苦是有科学依据的#】为什么调休看似凑出了小长假，却让人感到更痛苦了？这份情绪背后其实是有科学依据的，调休不仅在心理上会让人出现损失厌恶，一周内长时间的工作也会让人身体疲惫，降低工作效率。#调休到底有多痛苦#？ #五一其实只放1天#</t>
+          <t>五一凭什么调休两天</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7904438454</v>
+        <v>1784659924</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>打个游戏怎么你了</t>
+          <t>阿很K</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2789,55 +2785,55 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4.9万</t>
+          <t>272</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2024-04-12 08:32:17</t>
+          <t>2024-04-13 16:17:49</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1904</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>#五一调休放5天# 为什么大家都那么讨厌调休，却还是取消不了？ 这篇文章看完太扎心了。 能不能取消调休多给几天假期？ 我想多点时间宅家里打游戏 #游戏新星媒体扶持计划#</t>
+          <t>有时候是真的不愿意喷， 但是不得不让人生气， 连个双休都没办法给整好来，每天调休， 听不听人民骂不骂你们？#五一调休#</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>6587265979</v>
+        <v>7789023483</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Jiat32584769</t>
+          <t>腿毛儿的泡面</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>f</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2024-04-13 11:53:23</t>
+          <t>2024-04-13 14:19:11</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2847,97 +2843,95 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>清明时节雨纷纷，放假结束七天班马上又要五一了，又要调休了，真是调休又调休，调休何其多啊</t>
+          <t>#单休熬到周末是什么体验# 听说五一又要调休，打工人怎么活啊，连续上这么多天班真的很累</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3322131564</v>
+        <v>7904438454</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>子的叶</t>
+          <t>打个游戏怎么你了</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>m</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>4.9万</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2024-04-13 11:24:01</t>
+          <t>2024-04-12 08:32:17</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>2009</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>#放三天补一天的意义是什么# 前9后8的，想爆粗口了😡#五一调休#</t>
+          <t>#五一调休放5天# 为什么大家都那么讨厌调休，却还是取消不了？ 这篇文章看完太扎心了。 能不能取消调休多给几天假期？ 我想多点时间宅家里打游戏 #游戏新星媒体扶持计划#</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5244183267</v>
+        <v>7515121329</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>麒麟神侯</t>
+          <t>小王的碎碎念日常y</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>f</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>187.7万</t>
+          <t>274</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2024-04-12 12:49:43</t>
+          <t>2024-04-13 13:02:18</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>223</v>
+        <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>#五一其实只放1天##调休##五一调休#
-科普一个常识，对于假期天数不要看日历怎么排，而是要看《全国年节及纪念日放假办法》，这里规定了中国公共节假日，一共11天，你不管怎么排也不会超过这个天数。这里最长的就是春节国庆3天，五一只有1天。不吹不黑的平心而论，11天放在全球190+个国家里，大概能排80+，属于中等水平，为啥我们总觉得外国人的假期要比我们多的多呢？因为人家放假出游并不主要靠公共节假日，而是带薪年假。
-所以最根本问题是：“全年假期天数(公共假期+带薪年假)”太少，调休只是个遮羞布。所谓的调休是为了解决因为假期天数少而产生的旅游、回乡和刺激消费等问题的无奈的手段而已。</t>
+          <t>清明调休连七天班就算了 惊奇的发现五一调休连八天班 谁发明的调休啊</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5625072359</v>
+        <v>7712037835</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>池萌萌呀</t>
+          <t>我没有做mon</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2947,36 +2941,36 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>17.6万</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2024-04-12 08:48:21</t>
+          <t>2024-04-13 18:06:46</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1817</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>#五一调休放5天# 建议取消51假期，劳动节本来是为了纪念劳动者取得了8小时工作制的，我们没有取得，所以我们不需要纪念，也不需要调休。</t>
+          <t>要是五一不调休就好了 就可以回家过生日了</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6837882948</v>
+        <v>7291437038</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-左灯右行x</t>
+          <t>虾嘎嘎嘎</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2986,75 +2980,75 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>73</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2024-04-13 12:55:02</t>
+          <t>2024-04-13 13:45:01</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>你有没有五一出行计划呢，聊聊吧 当然有五一出行计划啦但是现在最主要的是能够抢到票回家🚄毕竟五一有5天假虽然是调休的但是车票还是很关键的 到时候去看看风景和吃美食</t>
+          <t>我到底还要上几个六天……别调了#五一调休#</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2482018143</v>
+        <v>6854775166</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>缸中大脑食用者</t>
+          <t>你眼睛为我下雨的那一天</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>f</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2024-04-13 11:00:44</t>
+          <t>2024-04-13 14:59:19</t>
         </is>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>#五一调休#神金神金神金啊！！！！！！！</t>
+          <t>#五一调休放5天#休不起就别调 有种全年无休算了</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>7345953819</v>
+        <v>3509125700</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ABCDEwow</t>
+          <t>GameRainy88</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3064,16 +3058,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>417</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2024-04-13 12:11:04</t>
+          <t>2024-04-13 17:04:29</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3083,17 +3077,17 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>#调休##调休快把四月调成单休了##五一调休# 放不起别放，你们这些领导能不能理解一下普通人 真好笑</t>
+          <t>天哪 这周真的好累 现在才稍微缓过来 未来几周周末又要特种兵一样到处蹿希望五一的调休能让我正常放假去环球 好不容易是个大家都有空人又少的时间 球球领导别发疯</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>7125065647</v>
+        <v>1953022600</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>被迫改名呵呵哒</t>
+          <t>橘子小汽水啊啊啊</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3103,102 +3097,765 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>222</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2024-04-13 11:51:17</t>
+          <t>2024-04-13 16:08:57</t>
         </is>
       </c>
       <c r="F69" t="n">
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>你们知道五一节调休的两天上周几的课吗</t>
+          <t>咱就是说 五一这个调休 离了个大谱啊#五一调休#</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1434024137</v>
+        <v>5444396602</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>家在依兰</t>
+          <t>慵懒少女-card</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>f</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>116</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2024-04-13 11:23:17</t>
+          <t>2024-04-13 14:18:42</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>看到个吐槽五一假期的本来还有双休的，硬生生调成了单休，然后五一放五天假，被安排值班，哈哈哈#五一调休#搞笑</t>
+          <t>感觉小假期没有过去多久，五一小长假又快到了，虽然不喜欢调休但是可以安排旅游</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
+        <v>7277109097</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>jiillffssvn</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2024-04-13 20:08:02</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>#五一调休放5天# 五一之前瘦四斤</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>6837882948</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>-左灯右行x</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2024-04-13 12:55:02</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>你有没有五一出行计划呢，聊聊吧 当然有五一出行计划啦但是现在最主要的是能够抢到票回家🚄毕竟五一有5天假虽然是调休的但是车票还是很关键的 到时候去看看风景和吃美食</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5816161945</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>北京大峰峰</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>38.7万</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2024-04-12 11:08:01</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>15294</v>
+      </c>
+      <c r="G73" t="n">
+        <v>116</v>
+      </c>
+      <c r="H73" t="n">
+        <v>21</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>#五一其实只放1天#，你觉得调休有必要吗？ 北京 网页链接</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>6499109947</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>冒牌w明星</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2024-04-13 13:41:56</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>#五一假期前后都要调休上班#放一个五一，放假前上8天班，放假回来上6天，搞这么累干嘛啊，我大小周已经很累了，放一个假，更累</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>3741520632</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>卿卿别难过</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2024-04-13 14:54:19</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>#五一调休放5天#法定休息是调休 调的五天 我们公司还得值一天班 然后就剩四天 休不起就别休了 调它干啥啊</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2246158212</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>白槎之上睡一觉</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.6万</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2024-04-13 16:55:43</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>#五一其实只放1天# 这调休真的有必要吗？整的乱七八糟的，不想放就别放了正常上下班算了。看着就小气吧啦的</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>7786851109</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>问我心理价就是15</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2024-04-13 16:05:34</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>#五一调休#谁发明的调休啊 我愿意少放几天也不愿意连着上学</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2983696765</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>在追星的路上</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2024-04-13 14:17:09</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>3</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>#单休熬到周末是什么体验#据说五一又要调休，到底是谁发明的这个调休啊！！！能不能让他自己今天把明天的饭吃了，明天不吃饭啊！</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>6980035468</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>西瓜味土豆丝</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2024-04-13 19:53:36</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>#不想上班上学症# 据说五一只放一天假，其它的好像都调休了。那干脆就别放假了吧，该上学的上学，该上班的上班，调毛线的休啊。</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7825263594</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>小苦瓜发疯日记</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2024-04-13 12:47:16</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>#我已经在担心五一放假了# 别调休了好吗</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5641153621</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>请问你有橘猫吗</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2024-04-13 17:35:41</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>3</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>#五一调休##五一其实只放1天# 既怕牛马不消费不能从牛马身上榨钱，又怕资本家不能最大程度压榨牛马——zg特色xx主义剥削制度</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>7783811760</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>overi1</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2024-04-13 13:37:34</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>3</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>我好难受刚上完六天就期中考考完又上六天五一调休我去尼玛de</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>5037464165</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>纳尔耷耷</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2024-04-13 16:54:21</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>我才发现五一调休，调的生日那天变成工作日了</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>6548690820</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>keneko</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2024-04-13 14:14:32</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>2</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>#五一调休#从我做起，不出门不消费</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>7674103889</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>世上最甜美微笑拥有者</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2024-04-13 19:42:32</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>补药啊 五一放假调休我又要连上7天课 我没惹</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>6381022269</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>干脆叫绿豆沙</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2024-04-13 12:43:13</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>是我天生周末不爱在家吗 怎么我今天还在上班#五一调休前后周末都要上班#</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>5999038719</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>xenon-chocolate</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2024-04-13 17:35:26</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>#五一调休放5天#神经病滚周六周日休息是我应得的</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
         <v>1226157155</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>李鲆</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>117.2万</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2024-04-13 07:39:30</t>
         </is>
       </c>
-      <c r="F71" t="n">
+      <c r="F88" t="n">
         <v>62</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G88" t="n">
         <v>14</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H88" t="n">
         <v>14</v>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>可能有人不知道，当年#五一调休#是做了投票民调的，最后采纳的是得票最高的方案，也就是现行的调休方案。所以，
 1、大规模调研的结果，未必一定能反映真实的民意。有技巧地设计问题和采样，几乎可以得到任何你想要的答案。（说的是调研，不是五一）
@@ -3210,40 +3867,79 @@
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="89">
+      <c r="A89" t="n">
+        <v>7885851404</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>随便逛逛吃吃</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2024-04-13 13:36:18</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>上午交警信息一发来立刻马上赶回家挪车，到地了才发现信息有误打人工说不在工作时间我还在纳闷，结果一想原来人家双休，而我单休明天还要继续加班好累😫清明调休上到下周要连续十五天然后月底又又又要开始五一调休毁灭吧真的</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
         <v>7467277921</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>西部决策</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>782.9万</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>783万</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
         <is>
           <t>2024-04-12 15:44:34</t>
         </is>
       </c>
-      <c r="F72" t="n">
-        <v>943</v>
-      </c>
-      <c r="G72" t="n">
-        <v>118</v>
-      </c>
-      <c r="H72" t="n">
-        <v>41</v>
-      </c>
-      <c r="I72" t="inlineStr">
+      <c r="F90" t="n">
+        <v>1007</v>
+      </c>
+      <c r="G90" t="n">
+        <v>120</v>
+      </c>
+      <c r="H90" t="n">
+        <v>42</v>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>【#调休是否是假装放假#】#我们能不能不调休# 五一越来越近，关于调休、加班等话题再一次冲上热搜。对于“调休”有人赞成有人反对。
 也许，大家反对调休，反对的关键在于“调”，该上的班一天不少，不如不调。
@@ -3254,715 +3950,329 @@
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>1815223775</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>娱乐西瓜酱</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>48.7万</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>2024-04-13 12:54:58</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
+    <row r="91">
+      <c r="A91" t="n">
+        <v>7002057008</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>慧00999</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2024-04-13 16:50:02</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
         <v>1</v>
       </c>
-      <c r="G73" t="n">
-        <v>2</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>别人的大学：五一休息九天，不调休。只有我实际休息一天吗？？五一放假调休大学生#优质博文上热搜开放计划##转发接龙开新年##亿点曝光计划# 娱乐西瓜酱的微博视频</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>5115545406</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>执拗的娜娜</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>2024-04-13 10:49:18</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>#五一假期前后都要调休上班#🌴 蒸胡萝卜土豆芹菜叶🌴
+🌾食材；胡萝卜，土豆，芹菜叶，香菜，盐，花椒粉，味精，醋，冰糖粉，胡椒粉，香油，辣椒油🌾
+1、胡萝卜和土豆去皮洗干净切丝，芹菜叶淘洗干净后晾干水份；
+2、料汁：碗中加入香菜碎、竹盐、生抽、醋、冰糖粉、香油、辣椒油、胡椒粉、味精调拌均匀；
+3、芹菜叶淋入适量植物油拌均匀，再加入竹盐、花椒粉和味精调均，撒入面粉抓拌均匀；
+4、胡萝卜和土豆丝淋入植物油拌均匀，再加入竹盐、花椒粉和味精调均，撒入面粉抓拌均匀；
+5、蒸锅铺上蒸布，倒入拌好的胡萝卜、土豆和芹菜叶，开锅后再蒸10分钟左右取出，淋入料汁拌均匀即可。</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>6123422058</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>bessie旅游业演唱会门票app会员</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2024-04-13 13:34:25</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
         <v>1</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>话说我怎么觉得五一就放了一天假周六周日本来也放假，还要补班两天#五一调休#</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>7868885883</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>小敬畏zz</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>2024-04-13 11:43:55</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>#五一调休放5天#调休，调你妈啊 谁要连续上班？</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>1498396803</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>中国天气</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>235.4万</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>2024-04-12 11:33:20</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>89</v>
-      </c>
-      <c r="G76" t="n">
-        <v>90</v>
-      </c>
-      <c r="H76" t="n">
-        <v>12</v>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>#五一其实只放1天##五一调休放5天# 大家已经在展望五一假期了，但是下下周要上6天班，五一假期结束又是上6天班</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>6123422058</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>bessie旅游业演唱会门票app会员</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>2024-04-13 13:34:25</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr">
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>以前小时候没有清明 中秋这些假 国庆 劳动节都是放实实在在7天、然后为了推广中国传统节日 把51 假分出去、所谓这个3天 那个假放3天、但每次都需要调休 挑来挑去 所有的节假日实际都变成一天了 ！我还要你放什么、谁发明的调休 既然放不起就别放、51从7天变成现在1天
 #五一劳动节##五一假期前后都要调休上班##五一其实只放1天#</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>7825263594</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>小苦瓜发疯日记</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>2024-04-13 12:47:16</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>#我已经在担心五一放假了# 别调休了好吗</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>1902256024</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>青春的泥沼</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
+    <row r="93">
+      <c r="A93" t="n">
+        <v>5494970072</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>南極破冰船_</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2024-04-13 12:39:37</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>#五一其实只放1天#看到两天调休，要上两个六天班，实际上只有一天假这些，我真的要晕倒了，六天班真的是要命啊……神金吧……骂了这么多年了为什么还不改……打工人的意愿是一点都不重要是吗？真的很悲哀……</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>7669969738</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>是暮柒不是慕七</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2024-04-13 17:28:56</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>五一 五天 你还不如直给我放三天 补两天不就等于放三天吗 #五一调休#</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>5979495016</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>许超医生</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>8.1万</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>2024-04-12 16:18:46</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>32</v>
-      </c>
-      <c r="G79" t="n">
-        <v>26</v>
-      </c>
-      <c r="H79" t="n">
-        <v>5</v>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>#五一调休##五一其实只放1天# 五一本来就是一天，真的，大家可以看《全国年节及纪念日放假办法》。 这就是我国的法定节假日，除夕不是法定节假日，我说过好几次了，五一也只放1天假。 所以#调休# 也就是拼凑假期，你懂吧。</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>2883768444</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>青羊共青团</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>60.5万</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>2024-04-13 11:37:00</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" t="n">
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>442.8万</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2024-04-12 10:35:01</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>6127</v>
+      </c>
+      <c r="G95" t="n">
+        <v>537</v>
+      </c>
+      <c r="H95" t="n">
+        <v>111</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>其实，五一假期实际只有一天，剩下的四天有两天周末和因为五一调休过来的其他周末 #五一其实只放1天#</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>5822570862</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>墨說財經</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>84万</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2024-04-13 14:04:27</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>7</v>
+      </c>
+      <c r="G96" t="n">
+        <v>11</v>
+      </c>
+      <c r="H96" t="n">
         <v>1</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>【出行有变！4月12日零时起，铁路调图！】🎙4月12日零时起，成都局集团公司将实行新的列车运行图，调图后，成都局集团公司旅客列车开行总数将达到868.5对，西南铁路运输能力得到新提升，将进一步满足人民群众出行需求。↓#五一调休#</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>1925878362</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>SMGNEWS</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>#俄罗斯# 俄罗斯五一放假11天，凭什么不调休？
+俄罗斯五一劳动节3天假、5月9日卫国战争胜利日放假4天，中间间隔4天是俄罗斯国家赠送的4天假日。一共长达11天，俄罗斯没有调休的惯例，也就是说不用补班。
+咱们的五一节5天假，有2天是周六末，有2天需要调休补班，算起来的话，五一节我们其实只有一天假。
+但是调休凑长假，可以让人们有时间出去旅游消费拉动经济。同时兼顾了工作（生产）。
+可以说调休才是世界上最伟大的发明：一边让你把钱花了，一边让你把活也干了。等于拉动了双倍的GDP。</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1435160552</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>光远看经济</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>35.7万</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>2024-04-13 11:19:01</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>2</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>【五一不调休放假9天，这所高校被称“放假大学”？】11日，江苏苏州常熟理工学院，有多名学生发帖晒出学校发布的《五一假期通知》。通知中提到：该校五一假期，没有调休，加上周末，实打实放假共九天。 SMGNEWS的微博视频</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>1642512402</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>中国新闻周刊</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>467.3万</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2024-04-12 19:06:40</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>1182</v>
+      </c>
+      <c r="G97" t="n">
+        <v>132</v>
+      </c>
+      <c r="H97" t="n">
+        <v>64</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>“五一长假”这个说法值得商榷，因为“五一”真正就放假一天，其中两天是周六周日，其他的两天是调休来的。也就是说，五天中有四天时间本来就是休息的。
+大家讨论调休已经很久了，在旅游休假逐渐成为常态的情况下，通过调休的集体旅游的“长假”这种模式其实已经越来越不适应了。真的希望可以调整调休制度了，同时，大力推动带薪休假的落实。 #五一调休# #五一其实只放1天#</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>5244183267</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>麒麟神侯</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>6222.1万</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>2024-04-12 10:59:08</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>33866</v>
-      </c>
-      <c r="G82" t="n">
-        <v>2935</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1007</v>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>【#上班族称调休是一种折磨#】#今年还要调休几次#？劳动节5月1日至5月5日放假调休，共5天。长假背后，则是4月28日（星期日）、5月11日（星期六）上班。因工作性质，从事新媒体行业的刘先生平时几乎没有正常的双休。“当一个小长假来临时，往往要以连续工作数天的代价来换取，这对于我们来说无疑是一种折磨。”刘先生称，“996”工作制已经很累了，调休让人感到更累。
-采访中，不少上班族反映了这一普遍感受。平日工作已经让他们感到压力巨大，再加上长时间的连续补班，他们的精力几乎被榨干。在这种情况下，调休制度似乎变得毫无意义，因为它并没有真正带来休息和放松的机会。
-市民刘思思说，以今年五一假期为例，为了拼凑出五天小长假，需要牺牲前后两个假日进行补班。“这种安排，我宁愿只休一天，也不愿毁掉两个完整的周末。”
-对于如何调整和完善休假制度，中国人民大学休闲经济研究中心主任王琪提出了几点构想。他主张落实并灵活执行劳动者的带薪休假制度，让劳动者能够自主调节假期。此外，他还建议适当延长小长假，以减少调休带来的疲劳感。同时，他提出可以在国企和发达地区试点“做四休三”的周休制度，并根据不同地区和企业的实际情况进行推广。#五一其实只放1天#（株洲晚报）</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>7002057008</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>慧00999</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>2024-04-13 12:37:04</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>#五一假期前后都要调休上班#丝瓜炒鲜花菇
-🌾 材料；丝瓜，鲜花菇，红萝卜，姜
-🌾 调味料；植物油，素蚝油，鲜蔬粉，生粉
-1、姜切片，丝瓜去皮切块，鲜花菇洗净切片（用素蚝油、生粉腌入味），红萝卜去皮切片（焯水）
-2、用平底锅将花菇煎至金黄色装起备用
-3、热锅下少许油爆香姜，下入丝瓜和红萝卜炒香，放适量调味料，花菇回锅，勾芡炒匀即成</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>3287336624</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>童话镇里的shero</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>2024-04-13 12:37:03</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>2</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>#五一其实只放1天#现在不是调休的问题，是五一假期从7天变3天现在变1天。。。最开始7天你补1天我能理解，后来减少成3天，那五一3天假➕周末休息日就是5天假期啊，为啥要这么恶心的去补班？1天还不够还要补2天，11号那周真的是硬补啊，你要是就想放一天你可以直说，本来是好好的传统节日，搞来搞去让大家怨声载道的 图啥</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>7836369167</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Bunnyslllogs</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>2024-04-13 10:47:21</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="n">
-        <v>2</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>本来一开始陌生人还不确定五一会不会调休 想等着放假通知出了再决定去不去玩 但是昨晚我们已经在看票和酒店了 要带的情趣内衣也挑好了 我有点担心陌生人五一要调休 陌生人：你别管 肌肉猫嘻嘻笑：我就只管见我爸爸呀 陌生人：对呀</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>2157738545</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>庄生梦蝶鹊登枝</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>129</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>2024-04-13 11:30:23</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>#五一调休#民心民意在微博，热闹不起作用</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>6453991469</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>呜嗷喵了个喵</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>2024-04-13 11:16:18</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>2</v>
-      </c>
-      <c r="G87" t="n">
-        <v>2</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>#五一调休#悟了，别老惦记那个调休了，把调休取消大家伙都开心，一开心就出去旅游消费去了，不就促进消费了？老调休怨气冲天谁开心啊？不是，到底调休谁在开心啊？</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>7397275631</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>res1_name_glance</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>2024-04-13 11:29:50</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>五一，鄙人要鼓起勇气调休两天，连着周六日和五一假期休个九天（上班上疯了）</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>5582945836</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>枣枣小冰狐</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>2024-04-13 11:15:53</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>我不吃不喝不起床已经消费半天了，余额还有1.5天。想到五一前后还有调休更起不来了 思考太累了活着容易 闭眼吧。</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>5340438538</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>甘泉检察</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>1.9万</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>2024-04-13 08:59:05</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>17</v>
-      </c>
-      <c r="G90" t="n">
-        <v>7</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>【#公司用调休拒绝支付3倍加班工资合法吗#？】#五一调休#“五一”小长假即将来临，不少单位会根据工作需要，安排员工加班。那么，职工法定节假日加班后，公司以调休而拒绝支付3倍的加班工资合法吗？是否有法律依据？
-#法报君说#根据我国劳动法第四十四条规定，有下列情形之一的，用人单位应当按照下列标准支付高于劳动者正常工作时间工资的工资报酬：（一）安排劳动者延长工作时间的，支付不低于工资的百分之一百五十的工资报酬；（二）休息日安排劳动者工作又不能安排补休的，支付不低于工资的百分之二百的工资报酬；（三）法定休假日安排劳动者工作的，支付不低于工资的百分之三百的工资报酬。休息日安排劳动者加班的，可以选择安排补休或者支付不低于工资的百分之两百的工资报酬，但法定休息日安排加班的，没有法律规定可以选择调休。据此，用人单位安排职工在法定节假日加班的，不得以安排调休而拒绝支付加班工资。（作者：刘丹）视频自：最高人民法院的微博视频</t>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>187.7万</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2024-04-12 12:49:43</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>227</v>
+      </c>
+      <c r="G98" t="n">
+        <v>21</v>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>#五一其实只放1天##调休##五一调休#
+科普一个常识，对于假期天数不要看日历怎么排，而是要看《全国年节及纪念日放假办法》，这里规定了中国公共节假日，一共11天，你不管怎么排也不会超过这个天数。这里最长的就是春节国庆3天，五一只有1天。不吹不黑的平心而论，11天放在全球190+个国家里，大概能排80+，属于中等水平，为啥我们总觉得外国人的假期要比我们多的多呢？因为人家放假出游并不主要靠公共节假日，而是带薪年假。
+所以最根本问题是：“全年假期天数(公共假期+带薪年假)”太少，调休只是个遮羞布。所谓的调休是为了解决因为假期天数少而产生的旅游、回乡和刺激消费等问题的无奈的手段而已。</t>
         </is>
       </c>
     </row>
